--- a/biology/Zoologie/Cheloniidae/Cheloniidae.xlsx
+++ b/biology/Zoologie/Cheloniidae/Cheloniidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chéloniidés (Cheloniidae) sont une famille de tortues. Elle comprend six espèces de tortues marines cryptodires.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces tortues se rencontrent dans les eaux tropicales et tempérées.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces tortues disposent d'une carapace sans carène couverte d'écailles (contrairement à la tortue luth). Elles ont également une ou deux griffes sur les nageoires. 
-La tortue imbriquée est soupçonnée de s'hybrider facilement avec d'autres cheloniidea, telles que les caouannes. Certains hybrides trouvés au Brésil ou en Floride sont viables et fertiles car ils existent depuis au moins deux générations[1],[2]. Un hybride de tortue verte/imbriquée a été découvert au Suriname[3]. 
+La tortue imbriquée est soupçonnée de s'hybrider facilement avec d'autres cheloniidea, telles que les caouannes. Certains hybrides trouvés au Brésil ou en Floride sont viables et fertiles car ils existent depuis au moins deux générations,. Un hybride de tortue verte/imbriquée a été découvert au Suriname. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon TFTSG  (8 janvier 2012)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon TFTSG  (8 janvier 2012) :
 sous-famille Carettinae Gray, 1825
 genre Caretta Rafinesque, 1814
 Caretta caretta (Linnaeus, 1758) — tortue caouanne
@@ -640,9 +658,11 @@
           <t>Position phylogénétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les principaux groupes évolutifs relatifs sont décrits ci-dessous par phylogénie[5] selon Hirayama, 1997, 1998, Lapparent de Broin, 2000, et Parham, 2005 :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux groupes évolutifs relatifs sont décrits ci-dessous par phylogénie selon Hirayama, 1997, 1998, Lapparent de Broin, 2000, et Parham, 2005 :
  --o Procoelocryptodira
    |--o Chelonioidea Oppel, 1811
    |  |--o
@@ -685,7 +705,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Oppel, 1811 : Die Ordnungen, Familien und Gattungen der Reptilien, als Prodrom einer Naturgeschichte derselben. J. Lindauer, Munich (texte intégral)</t>
         </is>
